--- a/StructureDefinition-supporting-info.xlsx
+++ b/StructureDefinition-supporting-info.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-supporting-info.xlsx
+++ b/StructureDefinition-supporting-info.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
